--- a/AD/PracticaUD1/Recursos.xlsx
+++ b/AD/PracticaUD1/Recursos.xlsx
@@ -4005,9 +4005,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -4094,7 +4095,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4107,12 +4108,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4163,12 +4168,12 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A957" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2:D956"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1017" style="0" width="11.52"/>
@@ -4213,7 +4218,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4227,7 +4232,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4241,7 +4246,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4255,7 +4260,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4269,7 +4274,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4283,7 +4288,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4311,7 +4316,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>11.5</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4325,7 +4330,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>18</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4339,7 +4344,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>15</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4353,7 +4358,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4367,7 +4372,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>13</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4381,7 +4386,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>11.5</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4395,7 +4400,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>18</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4409,7 +4414,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>13</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4423,7 +4428,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>18</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4437,7 +4442,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>15</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4451,7 +4456,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4465,7 +4470,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4479,7 +4484,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4493,7 +4498,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4507,7 +4512,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4521,7 +4526,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4535,7 +4540,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4563,7 +4568,7 @@
         <v>21</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>33</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4619,7 +4624,7 @@
         <v>21</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>33</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4633,7 +4638,7 @@
         <v>23</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>50</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4647,7 +4652,7 @@
         <v>20</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>25</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4661,7 +4666,7 @@
         <v>22</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>41</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4675,7 +4680,7 @@
         <v>21</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>33</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4689,7 +4694,7 @@
         <v>24</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>62</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4703,7 +4708,7 @@
         <v>22</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>41</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4717,7 +4722,7 @@
         <v>24</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>62</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4731,7 +4736,7 @@
         <v>23</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>50</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4745,7 +4750,7 @@
         <v>12</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4759,7 +4764,7 @@
         <v>20</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>25</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4773,7 +4778,7 @@
         <v>15</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>13</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4787,7 +4792,7 @@
         <v>17</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>18</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4801,7 +4806,7 @@
         <v>6</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4815,7 +4820,7 @@
         <v>8</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4829,7 +4834,7 @@
         <v>5</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4843,7 +4848,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4899,7 +4904,7 @@
         <v>6</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4955,7 +4960,7 @@
         <v>21</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>33</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4983,7 +4988,7 @@
         <v>12</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4997,7 +5002,7 @@
         <v>12</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5025,7 +5030,7 @@
         <v>12</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5039,7 +5044,7 @@
         <v>5</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5053,7 +5058,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5067,7 +5072,7 @@
         <v>8</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5165,7 +5170,7 @@
         <v>11</v>
       </c>
       <c r="D71" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5179,7 +5184,7 @@
         <v>4</v>
       </c>
       <c r="D72" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5235,7 +5240,7 @@
         <v>19</v>
       </c>
       <c r="D76" s="3" t="n">
-        <v>22</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5249,7 +5254,7 @@
         <v>5</v>
       </c>
       <c r="D77" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5291,7 +5296,7 @@
         <v>4</v>
       </c>
       <c r="D80" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5305,7 +5310,7 @@
         <v>4</v>
       </c>
       <c r="D81" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5319,7 +5324,7 @@
         <v>5</v>
       </c>
       <c r="D82" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5347,7 +5352,7 @@
         <v>4</v>
       </c>
       <c r="D84" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5361,7 +5366,7 @@
         <v>5</v>
       </c>
       <c r="D85" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5417,7 +5422,7 @@
         <v>12</v>
       </c>
       <c r="D89" s="3" t="n">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5459,7 +5464,7 @@
         <v>11</v>
       </c>
       <c r="D92" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5473,7 +5478,7 @@
         <v>13</v>
       </c>
       <c r="D93" s="3" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5487,7 +5492,7 @@
         <v>5</v>
       </c>
       <c r="D94" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5529,7 +5534,7 @@
         <v>4</v>
       </c>
       <c r="D97" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5557,7 +5562,7 @@
         <v>7</v>
       </c>
       <c r="D99" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5599,7 +5604,7 @@
         <v>5</v>
       </c>
       <c r="D102" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5613,7 +5618,7 @@
         <v>4</v>
       </c>
       <c r="D103" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5627,7 +5632,7 @@
         <v>8</v>
       </c>
       <c r="D104" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5641,7 +5646,7 @@
         <v>8</v>
       </c>
       <c r="D105" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5697,7 +5702,7 @@
         <v>7</v>
       </c>
       <c r="D109" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5725,7 +5730,7 @@
         <v>6</v>
       </c>
       <c r="D111" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5767,7 +5772,7 @@
         <v>8</v>
       </c>
       <c r="D114" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5795,7 +5800,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5809,7 +5814,7 @@
         <v>4</v>
       </c>
       <c r="D117" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5823,7 +5828,7 @@
         <v>10</v>
       </c>
       <c r="D118" s="3" t="n">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5837,7 +5842,7 @@
         <v>17</v>
       </c>
       <c r="D119" s="3" t="n">
-        <v>18</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5851,7 +5856,7 @@
         <v>5</v>
       </c>
       <c r="D120" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5879,7 +5884,7 @@
         <v>5</v>
       </c>
       <c r="D122" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5977,7 +5982,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5991,7 +5996,7 @@
         <v>5</v>
       </c>
       <c r="D130" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6019,7 +6024,7 @@
         <v>11</v>
       </c>
       <c r="D132" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6061,7 +6066,7 @@
         <v>22</v>
       </c>
       <c r="D135" s="3" t="n">
-        <v>62</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6075,7 +6080,7 @@
         <v>5</v>
       </c>
       <c r="D136" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6089,7 +6094,7 @@
         <v>14</v>
       </c>
       <c r="D137" s="3" t="n">
-        <v>11.5</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6117,7 +6122,7 @@
         <v>4</v>
       </c>
       <c r="D139" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6159,7 +6164,7 @@
         <v>5</v>
       </c>
       <c r="D142" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6173,7 +6178,7 @@
         <v>16</v>
       </c>
       <c r="D143" s="3" t="n">
-        <v>15</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6201,7 +6206,7 @@
         <v>8</v>
       </c>
       <c r="D145" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6229,7 +6234,7 @@
         <v>4</v>
       </c>
       <c r="D147" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6257,7 +6262,7 @@
         <v>8</v>
       </c>
       <c r="D149" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6271,7 +6276,7 @@
         <v>9</v>
       </c>
       <c r="D150" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6285,7 +6290,7 @@
         <v>6</v>
       </c>
       <c r="D151" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6299,7 +6304,7 @@
         <v>7</v>
       </c>
       <c r="D152" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6341,7 +6346,7 @@
         <v>6</v>
       </c>
       <c r="D155" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6383,7 +6388,7 @@
         <v>8</v>
       </c>
       <c r="D158" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6397,7 +6402,7 @@
         <v>4</v>
       </c>
       <c r="D159" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6439,7 +6444,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6453,7 +6458,7 @@
         <v>8</v>
       </c>
       <c r="D163" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6467,7 +6472,7 @@
         <v>5</v>
       </c>
       <c r="D164" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6537,7 +6542,7 @@
         <v>6</v>
       </c>
       <c r="D169" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6579,7 +6584,7 @@
         <v>9</v>
       </c>
       <c r="D172" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6593,7 +6598,7 @@
         <v>11</v>
       </c>
       <c r="D173" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6663,7 +6668,7 @@
         <v>6</v>
       </c>
       <c r="D178" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6705,7 +6710,7 @@
         <v>11</v>
       </c>
       <c r="D181" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6719,7 +6724,7 @@
         <v>5</v>
       </c>
       <c r="D182" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6733,7 +6738,7 @@
         <v>4</v>
       </c>
       <c r="D183" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6845,7 +6850,7 @@
         <v>6</v>
       </c>
       <c r="D191" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6859,7 +6864,7 @@
         <v>11</v>
       </c>
       <c r="D192" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6915,7 +6920,7 @@
         <v>4</v>
       </c>
       <c r="D196" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6929,7 +6934,7 @@
         <v>4</v>
       </c>
       <c r="D197" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6957,7 +6962,7 @@
         <v>10</v>
       </c>
       <c r="D199" s="3" t="n">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6971,7 +6976,7 @@
         <v>17</v>
       </c>
       <c r="D200" s="3" t="n">
-        <v>18</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6985,7 +6990,7 @@
         <v>10</v>
       </c>
       <c r="D201" s="3" t="n">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6999,7 +7004,7 @@
         <v>14</v>
       </c>
       <c r="D202" s="3" t="n">
-        <v>11.5</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7013,7 +7018,7 @@
         <v>7</v>
       </c>
       <c r="D203" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7055,7 +7060,7 @@
         <v>8</v>
       </c>
       <c r="D206" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7069,7 +7074,7 @@
         <v>4</v>
       </c>
       <c r="D207" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7111,7 +7116,7 @@
         <v>8</v>
       </c>
       <c r="D210" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7139,7 +7144,7 @@
         <v>18</v>
       </c>
       <c r="D212" s="3" t="n">
-        <v>20</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7153,7 +7158,7 @@
         <v>6</v>
       </c>
       <c r="D213" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7167,7 +7172,7 @@
         <v>11</v>
       </c>
       <c r="D214" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7181,7 +7186,7 @@
         <v>8</v>
       </c>
       <c r="D215" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7195,7 +7200,7 @@
         <v>9</v>
       </c>
       <c r="D216" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7209,7 +7214,7 @@
         <v>7</v>
       </c>
       <c r="D217" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7223,7 +7228,7 @@
         <v>10</v>
       </c>
       <c r="D218" s="3" t="n">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7237,7 +7242,7 @@
         <v>4</v>
       </c>
       <c r="D219" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7251,7 +7256,7 @@
         <v>5</v>
       </c>
       <c r="D220" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7265,7 +7270,7 @@
         <v>10</v>
       </c>
       <c r="D221" s="3" t="n">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7279,7 +7284,7 @@
         <v>10</v>
       </c>
       <c r="D222" s="3" t="n">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7293,7 +7298,7 @@
         <v>12</v>
       </c>
       <c r="D223" s="3" t="n">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7307,7 +7312,7 @@
         <v>6</v>
       </c>
       <c r="D224" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7321,7 +7326,7 @@
         <v>7</v>
       </c>
       <c r="D225" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7349,7 +7354,7 @@
         <v>11</v>
       </c>
       <c r="D227" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7363,7 +7368,7 @@
         <v>8</v>
       </c>
       <c r="D228" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7377,7 +7382,7 @@
         <v>14</v>
       </c>
       <c r="D229" s="3" t="n">
-        <v>11.5</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7391,7 +7396,7 @@
         <v>6</v>
       </c>
       <c r="D230" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7405,7 +7410,7 @@
         <v>9</v>
       </c>
       <c r="D231" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7419,7 +7424,7 @@
         <v>13</v>
       </c>
       <c r="D232" s="3" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7489,7 +7494,7 @@
         <v>7</v>
       </c>
       <c r="D237" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7503,7 +7508,7 @@
         <v>8</v>
       </c>
       <c r="D238" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7517,7 +7522,7 @@
         <v>11</v>
       </c>
       <c r="D239" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7545,7 +7550,7 @@
         <v>5</v>
       </c>
       <c r="D241" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7573,7 +7578,7 @@
         <v>4</v>
       </c>
       <c r="D243" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7615,7 +7620,7 @@
         <v>4</v>
       </c>
       <c r="D246" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7629,7 +7634,7 @@
         <v>7</v>
       </c>
       <c r="D247" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7657,7 +7662,7 @@
         <v>12</v>
       </c>
       <c r="D249" s="3" t="n">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7671,7 +7676,7 @@
         <v>17</v>
       </c>
       <c r="D250" s="3" t="n">
-        <v>18</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7685,7 +7690,7 @@
         <v>8</v>
       </c>
       <c r="D251" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7713,7 +7718,7 @@
         <v>4</v>
       </c>
       <c r="D253" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7727,7 +7732,7 @@
         <v>7</v>
       </c>
       <c r="D254" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7755,7 +7760,7 @@
         <v>9</v>
       </c>
       <c r="D256" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7769,7 +7774,7 @@
         <v>7</v>
       </c>
       <c r="D257" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7797,7 +7802,7 @@
         <v>8</v>
       </c>
       <c r="D259" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7811,7 +7816,7 @@
         <v>15</v>
       </c>
       <c r="D260" s="3" t="n">
-        <v>13</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7825,7 +7830,7 @@
         <v>5</v>
       </c>
       <c r="D261" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7839,7 +7844,7 @@
         <v>5</v>
       </c>
       <c r="D262" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7867,7 +7872,7 @@
         <v>6</v>
       </c>
       <c r="D264" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7895,7 +7900,7 @@
         <v>5</v>
       </c>
       <c r="D266" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7909,7 +7914,7 @@
         <v>7</v>
       </c>
       <c r="D267" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7923,7 +7928,7 @@
         <v>8</v>
       </c>
       <c r="D268" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7937,7 +7942,7 @@
         <v>5</v>
       </c>
       <c r="D269" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8007,7 +8012,7 @@
         <v>11</v>
       </c>
       <c r="D274" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8021,7 +8026,7 @@
         <v>8</v>
       </c>
       <c r="D275" s="3" t="n">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8063,7 +8068,7 @@
         <v>7</v>
       </c>
       <c r="D278" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8105,7 +8110,7 @@
         <v>5</v>
       </c>
       <c r="D281" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8119,7 +8124,7 @@
         <v>9</v>
       </c>
       <c r="D282" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8133,7 +8138,7 @@
         <v>4</v>
       </c>
       <c r="D283" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8161,7 +8166,7 @@
         <v>11</v>
       </c>
       <c r="D285" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8175,7 +8180,7 @@
         <v>7</v>
       </c>
       <c r="D286" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8189,7 +8194,7 @@
         <v>14</v>
       </c>
       <c r="D287" s="3" t="n">
-        <v>11.5</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8203,7 +8208,7 @@
         <v>5</v>
       </c>
       <c r="D288" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8217,7 +8222,7 @@
         <v>18</v>
       </c>
       <c r="D289" s="3" t="n">
-        <v>18</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8231,7 +8236,7 @@
         <v>4</v>
       </c>
       <c r="D290" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8273,7 +8278,7 @@
         <v>6</v>
       </c>
       <c r="D293" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8287,7 +8292,7 @@
         <v>7</v>
       </c>
       <c r="D294" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8301,7 +8306,7 @@
         <v>5</v>
       </c>
       <c r="D295" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8315,7 +8320,7 @@
         <v>4</v>
       </c>
       <c r="D296" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8357,7 +8362,7 @@
         <v>8</v>
       </c>
       <c r="D299" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8385,7 +8390,7 @@
         <v>23</v>
       </c>
       <c r="D301" s="3" t="n">
-        <v>50</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8399,7 +8404,7 @@
         <v>5</v>
       </c>
       <c r="D302" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8455,7 +8460,7 @@
         <v>12</v>
       </c>
       <c r="D306" s="3" t="n">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8483,7 +8488,7 @@
         <v>4</v>
       </c>
       <c r="D308" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8497,7 +8502,7 @@
         <v>9</v>
       </c>
       <c r="D309" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8553,7 +8558,7 @@
         <v>6</v>
       </c>
       <c r="D313" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8567,7 +8572,7 @@
         <v>10</v>
       </c>
       <c r="D314" s="3" t="n">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8581,7 +8586,7 @@
         <v>5</v>
       </c>
       <c r="D315" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8595,7 +8600,7 @@
         <v>6</v>
       </c>
       <c r="D316" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8609,7 +8614,7 @@
         <v>8</v>
       </c>
       <c r="D317" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8623,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="D318" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8637,7 +8642,7 @@
         <v>9</v>
       </c>
       <c r="D319" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8651,7 +8656,7 @@
         <v>14</v>
       </c>
       <c r="D320" s="3" t="n">
-        <v>11.5</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8679,7 +8684,7 @@
         <v>4</v>
       </c>
       <c r="D322" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8763,7 +8768,7 @@
         <v>16</v>
       </c>
       <c r="D328" s="3" t="n">
-        <v>15</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8777,7 +8782,7 @@
         <v>24</v>
       </c>
       <c r="D329" s="3" t="n">
-        <v>62</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8791,7 +8796,7 @@
         <v>9</v>
       </c>
       <c r="D330" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8805,7 +8810,7 @@
         <v>4</v>
       </c>
       <c r="D331" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8819,7 +8824,7 @@
         <v>5</v>
       </c>
       <c r="D332" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8833,7 +8838,7 @@
         <v>9</v>
       </c>
       <c r="D333" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8861,7 +8866,7 @@
         <v>12</v>
       </c>
       <c r="D335" s="3" t="n">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8917,7 +8922,7 @@
         <v>8</v>
       </c>
       <c r="D339" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8931,7 +8936,7 @@
         <v>4</v>
       </c>
       <c r="D340" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8973,7 +8978,7 @@
         <v>10</v>
       </c>
       <c r="D343" s="3" t="n">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8987,7 +8992,7 @@
         <v>8</v>
       </c>
       <c r="D344" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9001,7 +9006,7 @@
         <v>12</v>
       </c>
       <c r="D345" s="3" t="n">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9015,7 +9020,7 @@
         <v>4</v>
       </c>
       <c r="D346" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9029,7 +9034,7 @@
         <v>6</v>
       </c>
       <c r="D347" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9085,7 +9090,7 @@
         <v>6</v>
       </c>
       <c r="D351" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9113,7 +9118,7 @@
         <v>6</v>
       </c>
       <c r="D353" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9127,7 +9132,7 @@
         <v>6</v>
       </c>
       <c r="D354" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9183,7 +9188,7 @@
         <v>4</v>
       </c>
       <c r="D358" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9197,7 +9202,7 @@
         <v>6</v>
       </c>
       <c r="D359" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9211,7 +9216,7 @@
         <v>9</v>
       </c>
       <c r="D360" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9253,7 +9258,7 @@
         <v>12</v>
       </c>
       <c r="D363" s="3" t="n">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9281,7 +9286,7 @@
         <v>20</v>
       </c>
       <c r="D365" s="3" t="n">
-        <v>25</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9295,7 +9300,7 @@
         <v>4</v>
       </c>
       <c r="D366" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9309,7 +9314,7 @@
         <v>5</v>
       </c>
       <c r="D367" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9323,7 +9328,7 @@
         <v>4</v>
       </c>
       <c r="D368" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9351,7 +9356,7 @@
         <v>7</v>
       </c>
       <c r="D370" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9449,7 +9454,7 @@
         <v>5</v>
       </c>
       <c r="D377" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9645,7 +9650,7 @@
         <v>5</v>
       </c>
       <c r="D391" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9757,7 +9762,7 @@
         <v>9</v>
       </c>
       <c r="D399" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9771,7 +9776,7 @@
         <v>4</v>
       </c>
       <c r="D400" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9785,7 +9790,7 @@
         <v>19</v>
       </c>
       <c r="D401" s="3" t="n">
-        <v>22</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9799,7 +9804,7 @@
         <v>22</v>
       </c>
       <c r="D402" s="3" t="n">
-        <v>25</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9841,7 +9846,7 @@
         <v>4</v>
       </c>
       <c r="D405" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9855,7 +9860,7 @@
         <v>8</v>
       </c>
       <c r="D406" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9897,7 +9902,7 @@
         <v>6</v>
       </c>
       <c r="D409" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9911,7 +9916,7 @@
         <v>9</v>
       </c>
       <c r="D410" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9925,7 +9930,7 @@
         <v>5</v>
       </c>
       <c r="D411" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9953,7 +9958,7 @@
         <v>6</v>
       </c>
       <c r="D413" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9981,7 +9986,7 @@
         <v>4</v>
       </c>
       <c r="D415" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10149,7 +10154,7 @@
         <v>11</v>
       </c>
       <c r="D427" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10163,7 +10168,7 @@
         <v>12</v>
       </c>
       <c r="D428" s="3" t="n">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10177,7 +10182,7 @@
         <v>10</v>
       </c>
       <c r="D429" s="3" t="n">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10191,7 +10196,7 @@
         <v>14</v>
       </c>
       <c r="D430" s="3" t="n">
-        <v>11.5</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10205,7 +10210,7 @@
         <v>13</v>
       </c>
       <c r="D431" s="3" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10219,7 +10224,7 @@
         <v>5</v>
       </c>
       <c r="D432" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10233,7 +10238,7 @@
         <v>17</v>
       </c>
       <c r="D433" s="3" t="n">
-        <v>18</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10261,7 +10266,7 @@
         <v>9</v>
       </c>
       <c r="D435" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10289,7 +10294,7 @@
         <v>6</v>
       </c>
       <c r="D437" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10331,7 +10336,7 @@
         <v>8</v>
       </c>
       <c r="D440" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10387,7 +10392,7 @@
         <v>7</v>
       </c>
       <c r="D444" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10415,7 +10420,7 @@
         <v>11</v>
       </c>
       <c r="D446" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10513,7 +10518,7 @@
         <v>10</v>
       </c>
       <c r="D453" s="3" t="n">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10527,7 +10532,7 @@
         <v>12</v>
       </c>
       <c r="D454" s="3" t="n">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10541,7 +10546,7 @@
         <v>11</v>
       </c>
       <c r="D455" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10569,7 +10574,7 @@
         <v>11</v>
       </c>
       <c r="D457" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10583,7 +10588,7 @@
         <v>6</v>
       </c>
       <c r="D458" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10597,7 +10602,7 @@
         <v>7</v>
       </c>
       <c r="D459" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10611,7 +10616,7 @@
         <v>5</v>
       </c>
       <c r="D460" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10639,7 +10644,7 @@
         <v>5</v>
       </c>
       <c r="D462" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10667,7 +10672,7 @@
         <v>5</v>
       </c>
       <c r="D464" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10681,7 +10686,7 @@
         <v>13</v>
       </c>
       <c r="D465" s="3" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10723,7 +10728,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10737,7 +10742,7 @@
         <v>12</v>
       </c>
       <c r="D469" s="3" t="n">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10751,7 +10756,7 @@
         <v>7</v>
       </c>
       <c r="D470" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10765,7 +10770,7 @@
         <v>8</v>
       </c>
       <c r="D471" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10779,7 +10784,7 @@
         <v>5</v>
       </c>
       <c r="D472" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10835,7 +10840,7 @@
         <v>4</v>
       </c>
       <c r="D476" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10863,7 +10868,7 @@
         <v>6</v>
       </c>
       <c r="D478" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10905,7 +10910,7 @@
         <v>9</v>
       </c>
       <c r="D481" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10919,7 +10924,7 @@
         <v>11</v>
       </c>
       <c r="D482" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10933,7 +10938,7 @@
         <v>5</v>
       </c>
       <c r="D483" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10947,7 +10952,7 @@
         <v>5</v>
       </c>
       <c r="D484" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10961,7 +10966,7 @@
         <v>10</v>
       </c>
       <c r="D485" s="3" t="n">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10989,7 +10994,7 @@
         <v>8</v>
       </c>
       <c r="D487" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11017,7 +11022,7 @@
         <v>15</v>
       </c>
       <c r="D489" s="3" t="n">
-        <v>13</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11031,7 +11036,7 @@
         <v>14</v>
       </c>
       <c r="D490" s="3" t="n">
-        <v>11.5</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11045,7 +11050,7 @@
         <v>6</v>
       </c>
       <c r="D491" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11073,7 +11078,7 @@
         <v>8</v>
       </c>
       <c r="D493" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11143,7 +11148,7 @@
         <v>6</v>
       </c>
       <c r="D498" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11157,7 +11162,7 @@
         <v>16</v>
       </c>
       <c r="D499" s="3" t="n">
-        <v>15</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11171,7 +11176,7 @@
         <v>14</v>
       </c>
       <c r="D500" s="3" t="n">
-        <v>11.5</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11269,7 +11274,7 @@
         <v>12</v>
       </c>
       <c r="D507" s="3" t="n">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11283,7 +11288,7 @@
         <v>5</v>
       </c>
       <c r="D508" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11353,7 +11358,7 @@
         <v>4</v>
       </c>
       <c r="D513" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11423,7 +11428,7 @@
         <v>5</v>
       </c>
       <c r="D518" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11437,7 +11442,7 @@
         <v>7</v>
       </c>
       <c r="D519" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11451,7 +11456,7 @@
         <v>17</v>
       </c>
       <c r="D520" s="3" t="n">
-        <v>18</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11479,7 +11484,7 @@
         <v>9</v>
       </c>
       <c r="D522" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11493,7 +11498,7 @@
         <v>23</v>
       </c>
       <c r="D523" s="3" t="n">
-        <v>50</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11507,7 +11512,7 @@
         <v>5</v>
       </c>
       <c r="D524" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11535,7 +11540,7 @@
         <v>6</v>
       </c>
       <c r="D526" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11563,7 +11568,7 @@
         <v>4</v>
       </c>
       <c r="D528" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11619,7 +11624,7 @@
         <v>4</v>
       </c>
       <c r="D532" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11675,7 +11680,7 @@
         <v>21</v>
       </c>
       <c r="D536" s="3" t="n">
-        <v>33</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11689,7 +11694,7 @@
         <v>4</v>
       </c>
       <c r="D537" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11703,7 +11708,7 @@
         <v>6</v>
       </c>
       <c r="D538" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11717,7 +11722,7 @@
         <v>5</v>
       </c>
       <c r="D539" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11745,7 +11750,7 @@
         <v>8</v>
       </c>
       <c r="D541" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11787,7 +11792,7 @@
         <v>4</v>
       </c>
       <c r="D544" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11829,7 +11834,7 @@
         <v>18</v>
       </c>
       <c r="D547" s="3" t="n">
-        <v>20</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11843,7 +11848,7 @@
         <v>5</v>
       </c>
       <c r="D548" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11857,7 +11862,7 @@
         <v>6</v>
       </c>
       <c r="D549" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11871,7 +11876,7 @@
         <v>6</v>
       </c>
       <c r="D550" s="3" t="n">
-        <v>2.399</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11927,7 +11932,7 @@
         <v>8</v>
       </c>
       <c r="D554" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11941,7 +11946,7 @@
         <v>6</v>
       </c>
       <c r="D555" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11955,7 +11960,7 @@
         <v>25</v>
       </c>
       <c r="D556" s="3" t="n">
-        <v>75</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11969,7 +11974,7 @@
         <v>6</v>
       </c>
       <c r="D557" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11983,7 +11988,7 @@
         <v>6</v>
       </c>
       <c r="D558" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12025,7 +12030,7 @@
         <v>11</v>
       </c>
       <c r="D561" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12039,7 +12044,7 @@
         <v>16</v>
       </c>
       <c r="D562" s="3" t="n">
-        <v>15</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12067,7 +12072,7 @@
         <v>13</v>
       </c>
       <c r="D564" s="3" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12081,7 +12086,7 @@
         <v>5</v>
       </c>
       <c r="D565" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12109,7 +12114,7 @@
         <v>12</v>
       </c>
       <c r="D567" s="3" t="n">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12151,7 +12156,7 @@
         <v>27</v>
       </c>
       <c r="D570" s="3" t="n">
-        <v>105</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12165,7 +12170,7 @@
         <v>6</v>
       </c>
       <c r="D571" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12221,7 +12226,7 @@
         <v>5</v>
       </c>
       <c r="D575" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12235,7 +12240,7 @@
         <v>5</v>
       </c>
       <c r="D576" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12291,7 +12296,7 @@
         <v>7</v>
       </c>
       <c r="D580" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12305,7 +12310,7 @@
         <v>22</v>
       </c>
       <c r="D581" s="3" t="n">
-        <v>41</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12319,7 +12324,7 @@
         <v>5</v>
       </c>
       <c r="D582" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12389,7 +12394,7 @@
         <v>14</v>
       </c>
       <c r="D587" s="3" t="n">
-        <v>11.5</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12403,7 +12408,7 @@
         <v>18</v>
       </c>
       <c r="D588" s="3" t="n">
-        <v>20</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12417,7 +12422,7 @@
         <v>6</v>
       </c>
       <c r="D589" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12431,7 +12436,7 @@
         <v>4</v>
       </c>
       <c r="D590" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12473,7 +12478,7 @@
         <v>8</v>
       </c>
       <c r="D593" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12501,7 +12506,7 @@
         <v>17</v>
       </c>
       <c r="D595" s="3" t="n">
-        <v>18</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12515,7 +12520,7 @@
         <v>15</v>
       </c>
       <c r="D596" s="3" t="n">
-        <v>1.3</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12529,7 +12534,7 @@
         <v>11</v>
       </c>
       <c r="D597" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12571,7 +12576,7 @@
         <v>6</v>
       </c>
       <c r="D600" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12627,7 +12632,7 @@
         <v>15</v>
       </c>
       <c r="D604" s="3" t="n">
-        <v>13</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12683,7 +12688,7 @@
         <v>4</v>
       </c>
       <c r="D608" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12711,7 +12716,7 @@
         <v>11</v>
       </c>
       <c r="D610" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12725,7 +12730,7 @@
         <v>13</v>
       </c>
       <c r="D611" s="3" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12739,7 +12744,7 @@
         <v>9</v>
       </c>
       <c r="D612" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12795,7 +12800,7 @@
         <v>4</v>
       </c>
       <c r="D616" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12809,7 +12814,7 @@
         <v>13</v>
       </c>
       <c r="D617" s="3" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12823,7 +12828,7 @@
         <v>5</v>
       </c>
       <c r="D618" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12837,7 +12842,7 @@
         <v>6</v>
       </c>
       <c r="D619" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12851,7 +12856,7 @@
         <v>5</v>
       </c>
       <c r="D620" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12879,7 +12884,7 @@
         <v>6</v>
       </c>
       <c r="D622" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12949,7 +12954,7 @@
         <v>4</v>
       </c>
       <c r="D627" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13005,7 +13010,7 @@
         <v>9</v>
       </c>
       <c r="D631" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13047,7 +13052,7 @@
         <v>4</v>
       </c>
       <c r="D634" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13075,7 +13080,7 @@
         <v>6</v>
       </c>
       <c r="D636" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13103,7 +13108,7 @@
         <v>7</v>
       </c>
       <c r="D638" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13117,7 +13122,7 @@
         <v>9</v>
       </c>
       <c r="D639" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13145,7 +13150,7 @@
         <v>4</v>
       </c>
       <c r="D641" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13229,7 +13234,7 @@
         <v>4</v>
       </c>
       <c r="D647" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13257,7 +13262,7 @@
         <v>4</v>
       </c>
       <c r="D649" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13271,7 +13276,7 @@
         <v>5</v>
       </c>
       <c r="D650" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13397,7 +13402,7 @@
         <v>20</v>
       </c>
       <c r="D659" s="3" t="n">
-        <v>25</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13425,7 +13430,7 @@
         <v>16</v>
       </c>
       <c r="D661" s="3" t="n">
-        <v>1.5</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13509,7 +13514,7 @@
         <v>7</v>
       </c>
       <c r="D667" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13565,7 +13570,7 @@
         <v>15</v>
       </c>
       <c r="D671" s="3" t="n">
-        <v>13</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13593,7 +13598,7 @@
         <v>23</v>
       </c>
       <c r="D673" s="3" t="n">
-        <v>50</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13663,7 +13668,7 @@
         <v>21</v>
       </c>
       <c r="D678" s="3" t="n">
-        <v>33</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13677,7 +13682,7 @@
         <v>17</v>
       </c>
       <c r="D679" s="3" t="n">
-        <v>18</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13733,7 +13738,7 @@
         <v>8</v>
       </c>
       <c r="D683" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13747,7 +13752,7 @@
         <v>13</v>
       </c>
       <c r="D684" s="3" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13789,7 +13794,7 @@
         <v>5</v>
       </c>
       <c r="D687" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13803,7 +13808,7 @@
         <v>4</v>
       </c>
       <c r="D688" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13845,7 +13850,7 @@
         <v>5</v>
       </c>
       <c r="D691" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13859,7 +13864,7 @@
         <v>5</v>
       </c>
       <c r="D692" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13901,7 +13906,7 @@
         <v>4</v>
       </c>
       <c r="D695" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13915,7 +13920,7 @@
         <v>5</v>
       </c>
       <c r="D696" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13957,7 +13962,7 @@
         <v>6</v>
       </c>
       <c r="D699" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13985,7 +13990,7 @@
         <v>11</v>
       </c>
       <c r="D701" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13999,7 +14004,7 @@
         <v>5</v>
       </c>
       <c r="D702" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14041,7 +14046,7 @@
         <v>5</v>
       </c>
       <c r="D705" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14055,7 +14060,7 @@
         <v>6</v>
       </c>
       <c r="D706" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14083,7 +14088,7 @@
         <v>7</v>
       </c>
       <c r="D708" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14097,7 +14102,7 @@
         <v>16</v>
       </c>
       <c r="D709" s="3" t="n">
-        <v>15</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14125,7 +14130,7 @@
         <v>11</v>
       </c>
       <c r="D711" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14139,7 +14144,7 @@
         <v>5</v>
       </c>
       <c r="D712" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14153,7 +14158,7 @@
         <v>6</v>
       </c>
       <c r="D713" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14181,7 +14186,7 @@
         <v>6</v>
       </c>
       <c r="D715" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14237,7 +14242,7 @@
         <v>5</v>
       </c>
       <c r="D719" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14265,7 +14270,7 @@
         <v>5</v>
       </c>
       <c r="D721" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14279,7 +14284,7 @@
         <v>6</v>
       </c>
       <c r="D722" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14293,7 +14298,7 @@
         <v>7</v>
       </c>
       <c r="D723" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14307,7 +14312,7 @@
         <v>5</v>
       </c>
       <c r="D724" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14321,7 +14326,7 @@
         <v>6</v>
       </c>
       <c r="D725" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14335,7 +14340,7 @@
         <v>4</v>
       </c>
       <c r="D726" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14349,7 +14354,7 @@
         <v>5</v>
       </c>
       <c r="D727" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14363,7 +14368,7 @@
         <v>10</v>
       </c>
       <c r="D728" s="3" t="n">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14391,7 +14396,7 @@
         <v>8</v>
       </c>
       <c r="D730" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14419,7 +14424,7 @@
         <v>6</v>
       </c>
       <c r="D732" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14475,7 +14480,7 @@
         <v>16</v>
       </c>
       <c r="D736" s="3" t="n">
-        <v>15</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14489,7 +14494,7 @@
         <v>22</v>
       </c>
       <c r="D737" s="3" t="n">
-        <v>41</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14517,7 +14522,7 @@
         <v>9</v>
       </c>
       <c r="D739" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14573,7 +14578,7 @@
         <v>4</v>
       </c>
       <c r="D743" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14587,7 +14592,7 @@
         <v>4</v>
       </c>
       <c r="D744" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14601,7 +14606,7 @@
         <v>8</v>
       </c>
       <c r="D745" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14643,7 +14648,7 @@
         <v>7</v>
       </c>
       <c r="D748" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14657,7 +14662,7 @@
         <v>4</v>
       </c>
       <c r="D749" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14685,7 +14690,7 @@
         <v>5</v>
       </c>
       <c r="D751" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14727,7 +14732,7 @@
         <v>7</v>
       </c>
       <c r="D754" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14741,7 +14746,7 @@
         <v>19</v>
       </c>
       <c r="D755" s="3" t="n">
-        <v>22</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14755,7 +14760,7 @@
         <v>8</v>
       </c>
       <c r="D756" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14811,7 +14816,7 @@
         <v>12</v>
       </c>
       <c r="D760" s="3" t="n">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14853,7 +14858,7 @@
         <v>4</v>
       </c>
       <c r="D763" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14895,7 +14900,7 @@
         <v>15</v>
       </c>
       <c r="D766" s="3" t="n">
-        <v>13</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14923,7 +14928,7 @@
         <v>16</v>
       </c>
       <c r="D768" s="3" t="n">
-        <v>15</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14937,7 +14942,7 @@
         <v>21</v>
       </c>
       <c r="D769" s="3" t="n">
-        <v>33</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14951,7 +14956,7 @@
         <v>12</v>
       </c>
       <c r="D770" s="3" t="n">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14965,7 +14970,7 @@
         <v>7</v>
       </c>
       <c r="D771" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14979,7 +14984,7 @@
         <v>7</v>
       </c>
       <c r="D772" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14993,7 +14998,7 @@
         <v>5</v>
       </c>
       <c r="D773" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15007,7 +15012,7 @@
         <v>5</v>
       </c>
       <c r="D774" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15021,7 +15026,7 @@
         <v>5</v>
       </c>
       <c r="D775" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15063,7 +15068,7 @@
         <v>6</v>
       </c>
       <c r="D778" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15077,7 +15082,7 @@
         <v>14</v>
       </c>
       <c r="D779" s="3" t="n">
-        <v>11.5</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15105,7 +15110,7 @@
         <v>7</v>
       </c>
       <c r="D781" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15147,7 +15152,7 @@
         <v>13</v>
       </c>
       <c r="D784" s="3" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15175,7 +15180,7 @@
         <v>8</v>
       </c>
       <c r="D786" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15217,7 +15222,7 @@
         <v>15</v>
       </c>
       <c r="D789" s="3" t="n">
-        <v>13</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15245,7 +15250,7 @@
         <v>4</v>
       </c>
       <c r="D791" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15273,7 +15278,7 @@
         <v>7</v>
       </c>
       <c r="D793" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15287,7 +15292,7 @@
         <v>10</v>
       </c>
       <c r="D794" s="3" t="n">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15301,7 +15306,7 @@
         <v>10</v>
       </c>
       <c r="D795" s="3" t="n">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15315,7 +15320,7 @@
         <v>13</v>
       </c>
       <c r="D796" s="3" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15329,7 +15334,7 @@
         <v>16</v>
       </c>
       <c r="D797" s="3" t="n">
-        <v>15</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15357,7 +15362,7 @@
         <v>13</v>
       </c>
       <c r="D799" s="3" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15385,7 +15390,7 @@
         <v>5</v>
       </c>
       <c r="D801" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15399,7 +15404,7 @@
         <v>4</v>
       </c>
       <c r="D802" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15455,7 +15460,7 @@
         <v>5</v>
       </c>
       <c r="D806" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15539,7 +15544,7 @@
         <v>7</v>
       </c>
       <c r="D812" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15553,7 +15558,7 @@
         <v>4</v>
       </c>
       <c r="D813" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15595,7 +15600,7 @@
         <v>6</v>
       </c>
       <c r="D816" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15623,7 +15628,7 @@
         <v>5</v>
       </c>
       <c r="D818" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15637,7 +15642,7 @@
         <v>30</v>
       </c>
       <c r="D819" s="3" t="n">
-        <v>155</v>
+        <v>155000</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15651,7 +15656,7 @@
         <v>5</v>
       </c>
       <c r="D820" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15679,7 +15684,7 @@
         <v>10</v>
       </c>
       <c r="D822" s="3" t="n">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15749,7 +15754,7 @@
         <v>12</v>
       </c>
       <c r="D827" s="3" t="n">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15763,7 +15768,7 @@
         <v>5</v>
       </c>
       <c r="D828" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15777,7 +15782,7 @@
         <v>8</v>
       </c>
       <c r="D829" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15805,7 +15810,7 @@
         <v>5</v>
       </c>
       <c r="D831" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15819,7 +15824,7 @@
         <v>12</v>
       </c>
       <c r="D832" s="3" t="n">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15847,7 +15852,7 @@
         <v>24</v>
       </c>
       <c r="D834" s="3" t="n">
-        <v>62</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15861,7 +15866,7 @@
         <v>5</v>
       </c>
       <c r="D835" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15903,7 +15908,7 @@
         <v>9</v>
       </c>
       <c r="D838" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15917,7 +15922,7 @@
         <v>6</v>
       </c>
       <c r="D839" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15945,7 +15950,7 @@
         <v>5</v>
       </c>
       <c r="D841" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15987,7 +15992,7 @@
         <v>5</v>
       </c>
       <c r="D844" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16001,7 +16006,7 @@
         <v>7</v>
       </c>
       <c r="D845" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16015,7 +16020,7 @@
         <v>4</v>
       </c>
       <c r="D846" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16029,7 +16034,7 @@
         <v>4</v>
       </c>
       <c r="D847" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16057,7 +16062,7 @@
         <v>8</v>
       </c>
       <c r="D849" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16071,7 +16076,7 @@
         <v>9</v>
       </c>
       <c r="D850" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16085,7 +16090,7 @@
         <v>13</v>
       </c>
       <c r="D851" s="3" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16099,7 +16104,7 @@
         <v>5</v>
       </c>
       <c r="D852" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16113,7 +16118,7 @@
         <v>7</v>
       </c>
       <c r="D853" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16127,7 +16132,7 @@
         <v>5</v>
       </c>
       <c r="D854" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16155,7 +16160,7 @@
         <v>17</v>
       </c>
       <c r="D856" s="3" t="n">
-        <v>18</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16169,7 +16174,7 @@
         <v>9</v>
       </c>
       <c r="D857" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16183,7 +16188,7 @@
         <v>4</v>
       </c>
       <c r="D858" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16197,7 +16202,7 @@
         <v>11</v>
       </c>
       <c r="D859" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16211,7 +16216,7 @@
         <v>13</v>
       </c>
       <c r="D860" s="3" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16225,7 +16230,7 @@
         <v>5</v>
       </c>
       <c r="D861" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16239,7 +16244,7 @@
         <v>5</v>
       </c>
       <c r="D862" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16323,7 +16328,7 @@
         <v>11</v>
       </c>
       <c r="D868" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16351,7 +16356,7 @@
         <v>5</v>
       </c>
       <c r="D870" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16393,7 +16398,7 @@
         <v>7</v>
       </c>
       <c r="D873" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16407,7 +16412,7 @@
         <v>9</v>
       </c>
       <c r="D874" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16435,7 +16440,7 @@
         <v>14</v>
       </c>
       <c r="D876" s="3" t="n">
-        <v>11.5</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16449,7 +16454,7 @@
         <v>24</v>
       </c>
       <c r="D877" s="3" t="n">
-        <v>62</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16477,7 +16482,7 @@
         <v>9</v>
       </c>
       <c r="D879" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16491,7 +16496,7 @@
         <v>11</v>
       </c>
       <c r="D880" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16505,7 +16510,7 @@
         <v>6</v>
       </c>
       <c r="D881" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16561,7 +16566,7 @@
         <v>9</v>
       </c>
       <c r="D885" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16589,7 +16594,7 @@
         <v>4</v>
       </c>
       <c r="D887" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16631,7 +16636,7 @@
         <v>4</v>
       </c>
       <c r="D890" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16645,7 +16650,7 @@
         <v>7</v>
       </c>
       <c r="D891" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16659,7 +16664,7 @@
         <v>6</v>
       </c>
       <c r="D892" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16673,7 +16678,7 @@
         <v>12</v>
       </c>
       <c r="D893" s="3" t="n">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16687,7 +16692,7 @@
         <v>5</v>
       </c>
       <c r="D894" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16701,7 +16706,7 @@
         <v>4</v>
       </c>
       <c r="D895" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16743,7 +16748,7 @@
         <v>5</v>
       </c>
       <c r="D898" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16757,7 +16762,7 @@
         <v>4</v>
       </c>
       <c r="D899" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16785,7 +16790,7 @@
         <v>4</v>
       </c>
       <c r="D901" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16813,7 +16818,7 @@
         <v>6</v>
       </c>
       <c r="D903" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16869,7 +16874,7 @@
         <v>17</v>
       </c>
       <c r="D907" s="3" t="n">
-        <v>18</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16883,7 +16888,7 @@
         <v>22</v>
       </c>
       <c r="D908" s="3" t="n">
-        <v>41</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16911,7 +16916,7 @@
         <v>6</v>
       </c>
       <c r="D910" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16995,7 +17000,7 @@
         <v>5</v>
       </c>
       <c r="D916" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17023,7 +17028,7 @@
         <v>5</v>
       </c>
       <c r="D918" s="3" t="n">
-        <v>18</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17037,7 +17042,7 @@
         <v>5</v>
       </c>
       <c r="D919" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17051,7 +17056,7 @@
         <v>6</v>
       </c>
       <c r="D920" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17079,7 +17084,7 @@
         <v>8</v>
       </c>
       <c r="D922" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17093,7 +17098,7 @@
         <v>5</v>
       </c>
       <c r="D923" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17135,7 +17140,7 @@
         <v>11</v>
       </c>
       <c r="D926" s="3" t="n">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17149,7 +17154,7 @@
         <v>4</v>
       </c>
       <c r="D927" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17177,7 +17182,7 @@
         <v>10</v>
       </c>
       <c r="D929" s="3" t="n">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17191,7 +17196,7 @@
         <v>7</v>
       </c>
       <c r="D930" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17205,7 +17210,7 @@
         <v>9</v>
       </c>
       <c r="D931" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17219,7 +17224,7 @@
         <v>6</v>
       </c>
       <c r="D932" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17233,7 +17238,7 @@
         <v>8</v>
       </c>
       <c r="D933" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17247,7 +17252,7 @@
         <v>7</v>
       </c>
       <c r="D934" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17261,7 +17266,7 @@
         <v>10</v>
       </c>
       <c r="D935" s="3" t="n">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17275,7 +17280,7 @@
         <v>8</v>
       </c>
       <c r="D936" s="3" t="n">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17289,7 +17294,7 @@
         <v>10</v>
       </c>
       <c r="D937" s="3" t="n">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17303,7 +17308,7 @@
         <v>13</v>
       </c>
       <c r="D938" s="3" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17317,7 +17322,7 @@
         <v>5</v>
       </c>
       <c r="D939" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17331,7 +17336,7 @@
         <v>9</v>
       </c>
       <c r="D940" s="3" t="n">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17345,7 +17350,7 @@
         <v>5</v>
       </c>
       <c r="D941" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17359,7 +17364,7 @@
         <v>6</v>
       </c>
       <c r="D942" s="3" t="n">
-        <v>2.3</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17373,7 +17378,7 @@
         <v>7</v>
       </c>
       <c r="D943" s="3" t="n">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17387,7 +17392,7 @@
         <v>12</v>
       </c>
       <c r="D944" s="3" t="n">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17429,7 +17434,7 @@
         <v>4</v>
       </c>
       <c r="D947" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17443,7 +17448,7 @@
         <v>4</v>
       </c>
       <c r="D948" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17457,7 +17462,7 @@
         <v>5</v>
       </c>
       <c r="D949" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17499,7 +17504,7 @@
         <v>26</v>
       </c>
       <c r="D952" s="3" t="n">
-        <v>90</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17513,7 +17518,7 @@
         <v>4</v>
       </c>
       <c r="D953" s="3" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17527,7 +17532,7 @@
         <v>14</v>
       </c>
       <c r="D954" s="3" t="n">
-        <v>11.5</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17541,7 +17546,7 @@
         <v>5</v>
       </c>
       <c r="D955" s="3" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17557,6 +17562,375 @@
       <c r="D956" s="3" t="n">
         <v>50</v>
       </c>
+    </row>
+    <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D957" s="5"/>
+    </row>
+    <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D958" s="5"/>
+    </row>
+    <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D959" s="5"/>
+    </row>
+    <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D960" s="5"/>
+    </row>
+    <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D961" s="5"/>
+    </row>
+    <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D962" s="5"/>
+    </row>
+    <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D963" s="5"/>
+    </row>
+    <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D964" s="5"/>
+    </row>
+    <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D965" s="5"/>
+    </row>
+    <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D966" s="5"/>
+    </row>
+    <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D967" s="5"/>
+    </row>
+    <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D968" s="5"/>
+    </row>
+    <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D969" s="5"/>
+    </row>
+    <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D970" s="5"/>
+    </row>
+    <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D971" s="5"/>
+    </row>
+    <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D972" s="5"/>
+    </row>
+    <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D973" s="5"/>
+    </row>
+    <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D974" s="5"/>
+    </row>
+    <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D975" s="5"/>
+    </row>
+    <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D976" s="5"/>
+    </row>
+    <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D977" s="5"/>
+    </row>
+    <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D978" s="5"/>
+    </row>
+    <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D979" s="5"/>
+    </row>
+    <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D980" s="5"/>
+    </row>
+    <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D981" s="5"/>
+    </row>
+    <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D982" s="5"/>
+    </row>
+    <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D983" s="5"/>
+    </row>
+    <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D984" s="5"/>
+    </row>
+    <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D985" s="5"/>
+    </row>
+    <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D986" s="5"/>
+    </row>
+    <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D987" s="5"/>
+    </row>
+    <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D988" s="5"/>
+    </row>
+    <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D989" s="5"/>
+    </row>
+    <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D990" s="5"/>
+    </row>
+    <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D991" s="5"/>
+    </row>
+    <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D992" s="5"/>
+    </row>
+    <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D993" s="5"/>
+    </row>
+    <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D994" s="5"/>
+    </row>
+    <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D995" s="5"/>
+    </row>
+    <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D996" s="5"/>
+    </row>
+    <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D997" s="5"/>
+    </row>
+    <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D998" s="5"/>
+    </row>
+    <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D999" s="5"/>
+    </row>
+    <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1000" s="5"/>
+    </row>
+    <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1001" s="5"/>
+    </row>
+    <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1002" s="5"/>
+    </row>
+    <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1003" s="5"/>
+    </row>
+    <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1004" s="5"/>
+    </row>
+    <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1005" s="5"/>
+    </row>
+    <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1006" s="5"/>
+    </row>
+    <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1007" s="5"/>
+    </row>
+    <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1008" s="5"/>
+    </row>
+    <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1009" s="5"/>
+    </row>
+    <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1010" s="5"/>
+    </row>
+    <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1011" s="5"/>
+    </row>
+    <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1012" s="5"/>
+    </row>
+    <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1013" s="5"/>
+    </row>
+    <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1014" s="5"/>
+    </row>
+    <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1015" s="5"/>
+    </row>
+    <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1016" s="5"/>
+    </row>
+    <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1017" s="5"/>
+    </row>
+    <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1018" s="5"/>
+    </row>
+    <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1019" s="5"/>
+    </row>
+    <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1020" s="5"/>
+    </row>
+    <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1021" s="5"/>
+    </row>
+    <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1022" s="5"/>
+    </row>
+    <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1023" s="5"/>
+    </row>
+    <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1024" s="5"/>
+    </row>
+    <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1025" s="5"/>
+    </row>
+    <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1026" s="5"/>
+    </row>
+    <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1027" s="5"/>
+    </row>
+    <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1028" s="5"/>
+    </row>
+    <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1029" s="5"/>
+    </row>
+    <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1030" s="5"/>
+    </row>
+    <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1031" s="5"/>
+    </row>
+    <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1032" s="5"/>
+    </row>
+    <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1033" s="5"/>
+    </row>
+    <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1034" s="5"/>
+    </row>
+    <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1035" s="5"/>
+    </row>
+    <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1036" s="5"/>
+    </row>
+    <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1037" s="5"/>
+    </row>
+    <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1038" s="5"/>
+    </row>
+    <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1039" s="5"/>
+    </row>
+    <row r="1040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1040" s="5"/>
+    </row>
+    <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1041" s="5"/>
+    </row>
+    <row r="1042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1042" s="5"/>
+    </row>
+    <row r="1043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1043" s="5"/>
+    </row>
+    <row r="1044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1044" s="5"/>
+    </row>
+    <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1045" s="5"/>
+    </row>
+    <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1046" s="5"/>
+    </row>
+    <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1047" s="5"/>
+    </row>
+    <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1048" s="5"/>
+    </row>
+    <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1049" s="5"/>
+    </row>
+    <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1050" s="5"/>
+    </row>
+    <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1051" s="5"/>
+    </row>
+    <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1052" s="5"/>
+    </row>
+    <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1053" s="5"/>
+    </row>
+    <row r="1054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1054" s="5"/>
+    </row>
+    <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1055" s="5"/>
+    </row>
+    <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1056" s="5"/>
+    </row>
+    <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1057" s="5"/>
+    </row>
+    <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1058" s="5"/>
+    </row>
+    <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1059" s="5"/>
+    </row>
+    <row r="1060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1060" s="5"/>
+    </row>
+    <row r="1061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1061" s="5"/>
+    </row>
+    <row r="1062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1062" s="5"/>
+    </row>
+    <row r="1063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1063" s="5"/>
+    </row>
+    <row r="1064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1064" s="5"/>
+    </row>
+    <row r="1065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1065" s="5"/>
+    </row>
+    <row r="1066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1066" s="5"/>
+    </row>
+    <row r="1067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1067" s="5"/>
+    </row>
+    <row r="1068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1068" s="5"/>
+    </row>
+    <row r="1069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1069" s="5"/>
+    </row>
+    <row r="1070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1070" s="5"/>
+    </row>
+    <row r="1071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1071" s="5"/>
+    </row>
+    <row r="1072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1072" s="5"/>
+    </row>
+    <row r="1073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1073" s="5"/>
+    </row>
+    <row r="1074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1074" s="5"/>
+    </row>
+    <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1075" s="5"/>
+    </row>
+    <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1076" s="5"/>
+    </row>
+    <row r="1077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1077" s="5"/>
+    </row>
+    <row r="1078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1078" s="5"/>
+    </row>
+    <row r="1079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1079" s="5"/>
     </row>
     <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -17641,15 +18015,15 @@
   </sheetPr>
   <dimension ref="A1:C340"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A322" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A341" activeCellId="0" sqref="A341"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A304" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A341" activeCellId="1" sqref="D2:D956 A341"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17664,10 +18038,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>976</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -17675,10 +18049,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -17686,10 +18060,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>980</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -17697,10 +18071,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>981</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -17708,10 +18082,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>982</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -17719,10 +18093,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -17730,10 +18104,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>984</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>985</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -17741,10 +18115,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>986</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -17752,10 +18126,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>988</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -17763,10 +18137,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>989</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>990</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -17774,10 +18148,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>991</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>990</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -17785,10 +18159,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>992</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -17796,10 +18170,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>993</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -17807,10 +18181,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>995</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -17818,10 +18192,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>996</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>997</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -17829,10 +18203,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>998</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -17840,10 +18214,10 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -17851,10 +18225,10 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>1000</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -17862,10 +18236,10 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>1001</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -17873,10 +18247,10 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>1002</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -17884,10 +18258,10 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>1003</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -17895,10 +18269,10 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>1004</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -17906,10 +18280,10 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
         <v>1005</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C24" s="0" t="n">
@@ -17917,10 +18291,10 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>1006</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -17928,10 +18302,10 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="5" t="s">
         <v>1007</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -17939,10 +18313,10 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>1008</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -17950,10 +18324,10 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>1009</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C28" s="0" t="n">
@@ -17961,10 +18335,10 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C29" s="0" t="n">
@@ -17972,10 +18346,10 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="5" t="s">
         <v>1011</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C30" s="0" t="n">
@@ -17983,10 +18357,10 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="5" t="s">
         <v>1012</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C31" s="0" t="n">
@@ -17994,10 +18368,10 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>1013</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C32" s="0" t="n">
@@ -18005,10 +18379,10 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>1014</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C33" s="0" t="n">
@@ -18016,10 +18390,10 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="5" t="s">
         <v>1015</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C34" s="0" t="n">
@@ -18027,10 +18401,10 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="5" t="s">
         <v>1016</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C35" s="0" t="n">
@@ -18038,10 +18412,10 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="5" t="s">
         <v>1017</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C36" s="0" t="n">
@@ -18049,10 +18423,10 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="5" t="s">
         <v>1018</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C37" s="0" t="n">
@@ -18060,10 +18434,10 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="5" t="s">
         <v>1019</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C38" s="0" t="n">
@@ -18071,10 +18445,10 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="5" t="s">
         <v>1020</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C39" s="0" t="n">
@@ -18082,10 +18456,10 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="5" t="s">
         <v>1021</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C40" s="0" t="n">
@@ -18093,10 +18467,10 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="5" t="s">
         <v>1023</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C41" s="0" t="n">
@@ -18104,10 +18478,10 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="5" t="s">
         <v>1024</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C42" s="0" t="n">
@@ -18115,10 +18489,10 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="5" t="s">
         <v>1025</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C43" s="0" t="n">
@@ -18126,10 +18500,10 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="5" t="s">
         <v>1026</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C44" s="0" t="n">
@@ -18137,10 +18511,10 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="5" t="s">
         <v>1027</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C45" s="0" t="n">
@@ -18148,10 +18522,10 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="5" t="s">
         <v>1028</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C46" s="0" t="n">
@@ -18159,10 +18533,10 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C47" s="0" t="n">
@@ -18170,10 +18544,10 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="5" t="s">
         <v>1030</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C48" s="0" t="n">
@@ -18181,10 +18555,10 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="5" t="s">
         <v>1031</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="5" t="s">
         <v>997</v>
       </c>
       <c r="C49" s="0" t="n">
@@ -18192,10 +18566,10 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="5" t="s">
         <v>1032</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C50" s="0" t="n">
@@ -18203,10 +18577,10 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="5" t="s">
         <v>1033</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C51" s="0" t="n">
@@ -18214,10 +18588,10 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="5" t="s">
         <v>1034</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="5" t="s">
         <v>990</v>
       </c>
       <c r="C52" s="0" t="n">
@@ -18225,10 +18599,10 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="5" t="s">
         <v>1035</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C53" s="0" t="n">
@@ -18236,10 +18610,10 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="5" t="s">
         <v>1036</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="C54" s="0" t="n">
@@ -18247,10 +18621,10 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="5" t="s">
         <v>1038</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C55" s="0" t="n">
@@ -18258,10 +18632,10 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="5" t="s">
         <v>1039</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C56" s="0" t="n">
@@ -18269,10 +18643,10 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C57" s="0" t="n">
@@ -18280,10 +18654,10 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="5" t="s">
         <v>1041</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C58" s="0" t="n">
@@ -18291,10 +18665,10 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="5" t="s">
         <v>1042</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C59" s="0" t="n">
@@ -18302,10 +18676,10 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="5" t="s">
         <v>1043</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C60" s="0" t="n">
@@ -18313,10 +18687,10 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="5" t="s">
         <v>1044</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C61" s="0" t="n">
@@ -18324,10 +18698,10 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="5" t="s">
         <v>1045</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C62" s="0" t="n">
@@ -18335,10 +18709,10 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="5" t="s">
         <v>1046</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C63" s="0" t="n">
@@ -18346,10 +18720,10 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="5" t="s">
         <v>1047</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C64" s="0" t="n">
@@ -18357,10 +18731,10 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="5" t="s">
         <v>1048</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="5" t="s">
         <v>997</v>
       </c>
       <c r="C65" s="0" t="n">
@@ -18368,10 +18742,10 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="5" t="s">
         <v>990</v>
       </c>
       <c r="C66" s="0" t="n">
@@ -18379,10 +18753,10 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="5" t="s">
         <v>1050</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="5" t="s">
         <v>997</v>
       </c>
       <c r="C67" s="0" t="n">
@@ -18390,10 +18764,10 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="5" t="s">
         <v>1051</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="5" t="s">
         <v>985</v>
       </c>
       <c r="C68" s="0" t="n">
@@ -18401,10 +18775,10 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="5" t="s">
         <v>1052</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="5" t="s">
         <v>1053</v>
       </c>
       <c r="C69" s="0" t="n">
@@ -18412,10 +18786,10 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="5" t="s">
         <v>1054</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C70" s="0" t="n">
@@ -18423,10 +18797,10 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="5" t="s">
         <v>1055</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C71" s="0" t="n">
@@ -18434,10 +18808,10 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="5" t="s">
         <v>1056</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C72" s="0" t="n">
@@ -18445,10 +18819,10 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="5" t="s">
         <v>1057</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C73" s="0" t="n">
@@ -18456,10 +18830,10 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="5" t="s">
         <v>1058</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C74" s="0" t="n">
@@ -18467,10 +18841,10 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="5" t="s">
         <v>1059</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C75" s="0" t="n">
@@ -18478,10 +18852,10 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="5" t="s">
         <v>1060</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C76" s="0" t="n">
@@ -18489,10 +18863,10 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="5" t="s">
         <v>1061</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C77" s="0" t="n">
@@ -18500,10 +18874,10 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="5" t="s">
         <v>1062</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C78" s="0" t="n">
@@ -18511,10 +18885,10 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C79" s="0" t="n">
@@ -18522,10 +18896,10 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="5" t="s">
         <v>1064</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C80" s="0" t="n">
@@ -18533,10 +18907,10 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="5" t="s">
         <v>1065</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C81" s="0" t="n">
@@ -18544,10 +18918,10 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="5" t="s">
         <v>1066</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C82" s="0" t="n">
@@ -18555,10 +18929,10 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="5" t="s">
         <v>1067</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C83" s="0" t="n">
@@ -18566,10 +18940,10 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="5" t="s">
         <v>1068</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C84" s="0" t="n">
@@ -18577,10 +18951,10 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="5" t="s">
         <v>1069</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C85" s="0" t="n">
@@ -18588,10 +18962,10 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="5" t="s">
         <v>1070</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C86" s="0" t="n">
@@ -18599,10 +18973,10 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="5" t="s">
         <v>1071</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C87" s="0" t="n">
@@ -18610,10 +18984,10 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="5" t="s">
         <v>1072</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C88" s="0" t="n">
@@ -18621,10 +18995,10 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="5" t="s">
         <v>1073</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C89" s="0" t="n">
@@ -18632,10 +19006,10 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="5" t="s">
         <v>1074</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C90" s="0" t="n">
@@ -18643,10 +19017,10 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="5" t="s">
         <v>1075</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C91" s="0" t="n">
@@ -18654,10 +19028,10 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="5" t="s">
         <v>1076</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C92" s="0" t="n">
@@ -18665,10 +19039,10 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="5" t="s">
         <v>1077</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C93" s="0" t="n">
@@ -18676,10 +19050,10 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="5" t="s">
         <v>1078</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C94" s="0" t="n">
@@ -18687,10 +19061,10 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="5" t="s">
         <v>1079</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C95" s="0" t="n">
@@ -18698,10 +19072,10 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="5" t="s">
         <v>1080</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C96" s="0" t="n">
@@ -18709,10 +19083,10 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="5" t="s">
         <v>1081</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C97" s="0" t="n">
@@ -18720,10 +19094,10 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="5" t="s">
         <v>1082</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C98" s="0" t="n">
@@ -18731,10 +19105,10 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="5" t="s">
         <v>1083</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C99" s="0" t="n">
@@ -18742,10 +19116,10 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="5" t="s">
         <v>1084</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C100" s="0" t="n">
@@ -18753,10 +19127,10 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C101" s="0" t="n">
@@ -18764,10 +19138,10 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="5" t="s">
         <v>1086</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C102" s="0" t="n">
@@ -18775,10 +19149,10 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="5" t="s">
         <v>1087</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C103" s="0" t="n">
@@ -18786,10 +19160,10 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="5" t="s">
         <v>1088</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C104" s="0" t="n">
@@ -18797,10 +19171,10 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="5" t="s">
         <v>1089</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C105" s="0" t="n">
@@ -18808,10 +19182,10 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="5" t="s">
         <v>1090</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C106" s="0" t="n">
@@ -18819,10 +19193,10 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="5" t="s">
         <v>1091</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C107" s="0" t="n">
@@ -18830,10 +19204,10 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="5" t="s">
         <v>1092</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C108" s="0" t="n">
@@ -18841,10 +19215,10 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="5" t="s">
         <v>1093</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C109" s="0" t="n">
@@ -18852,10 +19226,10 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="5" t="s">
         <v>1094</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C110" s="0" t="n">
@@ -18863,10 +19237,10 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="5" t="s">
         <v>1095</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C111" s="0" t="n">
@@ -18874,10 +19248,10 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="5" t="s">
         <v>1096</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C112" s="0" t="n">
@@ -18885,10 +19259,10 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="5" t="s">
         <v>1097</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C113" s="0" t="n">
@@ -18896,10 +19270,10 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="5" t="s">
         <v>1098</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C114" s="0" t="n">
@@ -18907,10 +19281,10 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="5" t="s">
         <v>1099</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C115" s="0" t="n">
@@ -18918,10 +19292,10 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C116" s="0" t="n">
@@ -18929,10 +19303,10 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="5" t="s">
         <v>1101</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C117" s="0" t="n">
@@ -18940,10 +19314,10 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="5" t="s">
         <v>1102</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C118" s="0" t="n">
@@ -18951,10 +19325,10 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C119" s="0" t="n">
@@ -18962,10 +19336,10 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="5" t="s">
         <v>1104</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C120" s="0" t="n">
@@ -18973,10 +19347,10 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="5" t="s">
         <v>1105</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C121" s="0" t="n">
@@ -18984,10 +19358,10 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="5" t="s">
         <v>1106</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C122" s="0" t="n">
@@ -18995,10 +19369,10 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="5" t="s">
         <v>1107</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C123" s="0" t="n">
@@ -19006,10 +19380,10 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="5" t="s">
         <v>1108</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C124" s="0" t="n">
@@ -19017,10 +19391,10 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="5" t="s">
         <v>1109</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C125" s="0" t="n">
@@ -19028,10 +19402,10 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="5" t="s">
         <v>1110</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C126" s="0" t="n">
@@ -19039,10 +19413,10 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="5" t="s">
         <v>1111</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C127" s="0" t="n">
@@ -19050,10 +19424,10 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="5" t="s">
         <v>1112</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C128" s="0" t="n">
@@ -19061,10 +19435,10 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="5" t="s">
         <v>1113</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C129" s="0" t="n">
@@ -19072,10 +19446,10 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="5" t="s">
         <v>1114</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C130" s="0" t="n">
@@ -19083,10 +19457,10 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="5" t="s">
         <v>1115</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C131" s="0" t="n">
@@ -19094,10 +19468,10 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="5" t="s">
         <v>1116</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C132" s="0" t="n">
@@ -19105,10 +19479,10 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="5" t="s">
         <v>1117</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C133" s="0" t="n">
@@ -19116,10 +19490,10 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="5" t="s">
         <v>1118</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C134" s="0" t="n">
@@ -19127,10 +19501,10 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="5" t="s">
         <v>1119</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C135" s="0" t="n">
@@ -19138,10 +19512,10 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="5" t="s">
         <v>1120</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C136" s="0" t="n">
@@ -19149,10 +19523,10 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="5" t="s">
         <v>1121</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C137" s="0" t="n">
@@ -19160,10 +19534,10 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="5" t="s">
         <v>1122</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C138" s="0" t="n">
@@ -19171,10 +19545,10 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="5" t="s">
         <v>1123</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C139" s="0" t="n">
@@ -19182,10 +19556,10 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="5" t="s">
         <v>1124</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C140" s="0" t="n">
@@ -19193,10 +19567,10 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="5" t="s">
         <v>1125</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C141" s="0" t="n">
@@ -19204,10 +19578,10 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="5" t="s">
         <v>1126</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C142" s="0" t="n">
@@ -19215,10 +19589,10 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="5" t="s">
         <v>1127</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C143" s="0" t="n">
@@ -19226,10 +19600,10 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="5" t="s">
         <v>1128</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C144" s="0" t="n">
@@ -19237,10 +19611,10 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="5" t="s">
         <v>1129</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C145" s="0" t="n">
@@ -19248,10 +19622,10 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="5" t="s">
         <v>1130</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C146" s="0" t="n">
@@ -19259,10 +19633,10 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="5" t="s">
         <v>1131</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="5" t="s">
         <v>997</v>
       </c>
       <c r="C147" s="0" t="n">
@@ -19270,10 +19644,10 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="5" t="s">
         <v>1132</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C148" s="0" t="n">
@@ -19281,10 +19655,10 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="5" t="s">
         <v>1133</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C149" s="0" t="n">
@@ -19292,10 +19666,10 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="5" t="s">
         <v>1134</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C150" s="0" t="n">
@@ -19303,10 +19677,10 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="5" t="s">
         <v>1135</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="5" t="s">
         <v>990</v>
       </c>
       <c r="C151" s="0" t="n">
@@ -19314,10 +19688,10 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="5" t="s">
         <v>1136</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="5" t="s">
         <v>990</v>
       </c>
       <c r="C152" s="0" t="n">
@@ -19325,10 +19699,10 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="5" t="s">
         <v>1137</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="C153" s="0" t="n">
@@ -19336,10 +19710,10 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="5" t="s">
         <v>1138</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="C154" s="0" t="n">
@@ -19347,10 +19721,10 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="5" t="s">
         <v>1139</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="C155" s="0" t="n">
@@ -19358,10 +19732,10 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="5" t="s">
         <v>1140</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="C156" s="0" t="n">
@@ -19369,10 +19743,10 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="5" t="s">
         <v>1141</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="C157" s="0" t="n">
@@ -19380,10 +19754,10 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="5" t="s">
         <v>1142</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C158" s="0" t="n">
@@ -19391,10 +19765,10 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="5" t="s">
         <v>1143</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C159" s="0" t="n">
@@ -19402,10 +19776,10 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C160" s="0" t="n">
@@ -19413,10 +19787,10 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="5" t="s">
         <v>1145</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C161" s="0" t="n">
@@ -19424,10 +19798,10 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="5" t="s">
         <v>1146</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C162" s="0" t="n">
@@ -19435,10 +19809,10 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="5" t="s">
         <v>1147</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="5" t="s">
         <v>985</v>
       </c>
       <c r="C163" s="0" t="n">
@@ -19446,10 +19820,10 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="5" t="s">
         <v>1148</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="5" t="s">
         <v>985</v>
       </c>
       <c r="C164" s="0" t="n">
@@ -19457,10 +19831,10 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="5" t="s">
         <v>1149</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="5" t="s">
         <v>985</v>
       </c>
       <c r="C165" s="0" t="n">
@@ -19468,10 +19842,10 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="5" t="s">
         <v>1150</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="5" t="s">
         <v>985</v>
       </c>
       <c r="C166" s="0" t="n">
@@ -19479,10 +19853,10 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="5" t="s">
         <v>1151</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="5" t="s">
         <v>985</v>
       </c>
       <c r="C167" s="0" t="n">
@@ -19490,10 +19864,10 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="5" t="s">
         <v>1152</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="5" t="s">
         <v>985</v>
       </c>
       <c r="C168" s="0" t="n">
@@ -19501,10 +19875,10 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="5" t="s">
         <v>1153</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="5" t="s">
         <v>985</v>
       </c>
       <c r="C169" s="0" t="n">
@@ -19512,10 +19886,10 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="5" t="s">
         <v>1154</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C170" s="0" t="n">
@@ -19523,10 +19897,10 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="5" t="s">
         <v>1155</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C171" s="0" t="n">
@@ -19534,10 +19908,10 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="5" t="s">
         <v>1156</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C172" s="0" t="n">
@@ -19545,10 +19919,10 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="5" t="s">
         <v>1157</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C173" s="0" t="n">
@@ -19556,10 +19930,10 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="5" t="s">
         <v>1158</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C174" s="0" t="n">
@@ -19567,10 +19941,10 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="5" t="s">
         <v>1159</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C175" s="0" t="n">
@@ -19578,10 +19952,10 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="5" t="s">
         <v>1160</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C176" s="0" t="n">
@@ -19589,10 +19963,10 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="5" t="s">
         <v>1161</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C177" s="0" t="n">
@@ -19600,10 +19974,10 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="5" t="s">
         <v>1162</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C178" s="0" t="n">
@@ -19611,10 +19985,10 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="5" t="s">
         <v>1163</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C179" s="0" t="n">
@@ -19622,10 +19996,10 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="5" t="s">
         <v>1164</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C180" s="0" t="n">
@@ -19633,10 +20007,10 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="5" t="s">
         <v>1165</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="5" t="s">
         <v>997</v>
       </c>
       <c r="C181" s="0" t="n">
@@ -19644,10 +20018,10 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="5" t="s">
         <v>1166</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C182" s="0" t="n">
@@ -19655,10 +20029,10 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="5" t="s">
         <v>1167</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C183" s="0" t="n">
@@ -19666,10 +20040,10 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="5" t="s">
         <v>1168</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C184" s="0" t="n">
@@ -19677,10 +20051,10 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="5" t="s">
         <v>1169</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="C185" s="0" t="n">
@@ -19688,10 +20062,10 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="5" t="s">
         <v>1170</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C186" s="0" t="n">
@@ -19699,10 +20073,10 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="5" t="s">
         <v>1171</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C187" s="0" t="n">
@@ -19710,10 +20084,10 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="5" t="s">
         <v>1172</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C188" s="0" t="n">
@@ -19721,10 +20095,10 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="5" t="s">
         <v>1173</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="5" t="s">
         <v>1053</v>
       </c>
       <c r="C189" s="0" t="n">
@@ -19732,10 +20106,10 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="3" t="s">
+      <c r="A190" s="5" t="s">
         <v>1174</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C190" s="0" t="n">
@@ -19743,10 +20117,10 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="5" t="s">
         <v>1175</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C191" s="0" t="n">
@@ -19754,10 +20128,10 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="5" t="s">
         <v>1176</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C192" s="0" t="n">
@@ -19765,10 +20139,10 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="5" t="s">
         <v>1177</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C193" s="0" t="n">
@@ -19776,10 +20150,10 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="5" t="s">
         <v>1178</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C194" s="0" t="n">
@@ -19787,10 +20161,10 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="5" t="s">
         <v>1179</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C195" s="0" t="n">
@@ -19798,10 +20172,10 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="5" t="s">
         <v>1180</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C196" s="0" t="n">
@@ -19809,10 +20183,10 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="5" t="s">
         <v>1181</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C197" s="0" t="n">
@@ -19820,10 +20194,10 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="5" t="s">
         <v>1182</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C198" s="0" t="n">
@@ -19831,10 +20205,10 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="5" t="s">
         <v>1183</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C199" s="0" t="n">
@@ -19842,10 +20216,10 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="5" t="s">
         <v>1184</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C200" s="0" t="n">
@@ -19853,10 +20227,10 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="5" t="s">
         <v>1185</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C201" s="0" t="n">
@@ -19864,10 +20238,10 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="5" t="s">
         <v>1186</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C202" s="0" t="n">
@@ -19875,10 +20249,10 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="5" t="s">
         <v>1187</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C203" s="0" t="n">
@@ -19886,10 +20260,10 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="5" t="s">
         <v>1188</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C204" s="0" t="n">
@@ -19897,10 +20271,10 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="5" t="s">
         <v>1189</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C205" s="0" t="n">
@@ -19908,10 +20282,10 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="5" t="s">
         <v>1190</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C206" s="0" t="n">
@@ -19919,10 +20293,10 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="5" t="s">
         <v>1191</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C207" s="0" t="n">
@@ -19930,10 +20304,10 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="5" t="s">
         <v>1192</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C208" s="0" t="n">
@@ -19941,10 +20315,10 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="5" t="s">
         <v>1193</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C209" s="0" t="n">
@@ -19952,10 +20326,10 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="5" t="s">
         <v>1194</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C210" s="0" t="n">
@@ -19963,10 +20337,10 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="5" t="s">
         <v>1195</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C211" s="0" t="n">
@@ -19974,10 +20348,10 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="5" t="s">
         <v>1196</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C212" s="0" t="n">
@@ -19985,10 +20359,10 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="5" t="s">
         <v>1197</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C213" s="0" t="n">
@@ -19996,10 +20370,10 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="5" t="s">
         <v>1198</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B214" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C214" s="0" t="n">
@@ -20007,10 +20381,10 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="5" t="s">
         <v>1199</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C215" s="0" t="n">
@@ -20018,10 +20392,10 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C216" s="0" t="n">
@@ -20029,10 +20403,10 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="5" t="s">
         <v>1201</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B217" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C217" s="0" t="n">
@@ -20040,10 +20414,10 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="5" t="s">
         <v>1202</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C218" s="0" t="n">
@@ -20051,10 +20425,10 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="5" t="s">
         <v>1203</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C219" s="0" t="n">
@@ -20062,10 +20436,10 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="5" t="s">
         <v>1204</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C220" s="0" t="n">
@@ -20073,10 +20447,10 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="5" t="s">
         <v>1205</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B221" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C221" s="0" t="n">
@@ -20084,10 +20458,10 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="5" t="s">
         <v>1206</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C222" s="0" t="n">
@@ -20095,10 +20469,10 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="5" t="s">
         <v>1207</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" s="5" t="s">
         <v>997</v>
       </c>
       <c r="C223" s="0" t="n">
@@ -20106,10 +20480,10 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="5" t="s">
         <v>1208</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C224" s="0" t="n">
@@ -20117,10 +20491,10 @@
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="5" t="s">
         <v>1209</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C225" s="0" t="n">
@@ -20128,10 +20502,10 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="5" t="s">
         <v>1210</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C226" s="0" t="n">
@@ -20139,10 +20513,10 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="5" t="s">
         <v>1211</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C227" s="0" t="n">
@@ -20150,10 +20524,10 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="5" t="s">
         <v>1212</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C228" s="0" t="n">
@@ -20161,10 +20535,10 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="5" t="s">
         <v>1213</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C229" s="0" t="n">
@@ -20172,10 +20546,10 @@
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="5" t="s">
         <v>1214</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C230" s="0" t="n">
@@ -20183,10 +20557,10 @@
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="5" t="s">
         <v>1215</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C231" s="0" t="n">
@@ -20194,10 +20568,10 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="5" t="s">
         <v>1216</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C232" s="0" t="n">
@@ -20205,10 +20579,10 @@
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="5" t="s">
         <v>1217</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C233" s="0" t="n">
@@ -20216,10 +20590,10 @@
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="5" t="s">
         <v>1218</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B234" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C234" s="0" t="n">
@@ -20227,10 +20601,10 @@
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="5" t="s">
         <v>1219</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C235" s="0" t="n">
@@ -20238,10 +20612,10 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="5" t="s">
         <v>1220</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C236" s="0" t="n">
@@ -20249,10 +20623,10 @@
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="5" t="s">
         <v>1221</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C237" s="0" t="n">
@@ -20260,10 +20634,10 @@
       </c>
     </row>
     <row r="238" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="5" t="s">
         <v>1222</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C238" s="0" t="n">
@@ -20271,10 +20645,10 @@
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="5" t="s">
         <v>1223</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B239" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C239" s="0" t="n">
@@ -20282,10 +20656,10 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="5" t="s">
         <v>1224</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C240" s="0" t="n">
@@ -20293,10 +20667,10 @@
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="3" t="s">
+      <c r="A241" s="5" t="s">
         <v>1225</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B241" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C241" s="0" t="n">
@@ -20304,10 +20678,10 @@
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="3" t="s">
+      <c r="A242" s="5" t="s">
         <v>1226</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B242" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C242" s="0" t="n">
@@ -20315,10 +20689,10 @@
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="3" t="s">
+      <c r="A243" s="5" t="s">
         <v>1227</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B243" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C243" s="0" t="n">
@@ -20326,10 +20700,10 @@
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="3" t="s">
+      <c r="A244" s="5" t="s">
         <v>1228</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C244" s="0" t="n">
@@ -20337,10 +20711,10 @@
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="5" t="s">
         <v>1229</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B245" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C245" s="0" t="n">
@@ -20348,10 +20722,10 @@
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="3" t="s">
+      <c r="A246" s="5" t="s">
         <v>1230</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C246" s="0" t="n">
@@ -20359,10 +20733,10 @@
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="3" t="s">
+      <c r="A247" s="5" t="s">
         <v>1231</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B247" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C247" s="0" t="n">
@@ -20370,10 +20744,10 @@
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="5" t="s">
         <v>1232</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C248" s="0" t="n">
@@ -20381,10 +20755,10 @@
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="3" t="s">
+      <c r="A249" s="5" t="s">
         <v>1233</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B249" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C249" s="0" t="n">
@@ -20392,10 +20766,10 @@
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="3" t="s">
+      <c r="A250" s="5" t="s">
         <v>1234</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B250" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C250" s="0" t="n">
@@ -20403,10 +20777,10 @@
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="3" t="s">
+      <c r="A251" s="5" t="s">
         <v>1235</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C251" s="0" t="n">
@@ -20414,10 +20788,10 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="3" t="s">
+      <c r="A252" s="5" t="s">
         <v>1236</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B252" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C252" s="0" t="n">
@@ -20425,10 +20799,10 @@
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="3" t="s">
+      <c r="A253" s="5" t="s">
         <v>1237</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B253" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C253" s="0" t="n">
@@ -20436,10 +20810,10 @@
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="3" t="s">
+      <c r="A254" s="5" t="s">
         <v>1238</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B254" s="5" t="s">
         <v>990</v>
       </c>
       <c r="C254" s="0" t="n">
@@ -20447,10 +20821,10 @@
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="3" t="s">
+      <c r="A255" s="5" t="s">
         <v>1239</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" s="5" t="s">
         <v>990</v>
       </c>
       <c r="C255" s="0" t="n">
@@ -20458,10 +20832,10 @@
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="3" t="s">
+      <c r="A256" s="5" t="s">
         <v>1240</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B256" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="C256" s="0" t="n">
@@ -20469,10 +20843,10 @@
       </c>
     </row>
     <row r="257" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="3" t="s">
+      <c r="A257" s="5" t="s">
         <v>1241</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B257" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C257" s="0" t="n">
@@ -20480,10 +20854,10 @@
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="3" t="s">
+      <c r="A258" s="5" t="s">
         <v>1242</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C258" s="0" t="n">
@@ -20491,10 +20865,10 @@
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="3" t="s">
+      <c r="A259" s="5" t="s">
         <v>1243</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" s="5" t="s">
         <v>985</v>
       </c>
       <c r="C259" s="0" t="n">
@@ -20502,10 +20876,10 @@
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="3" t="s">
+      <c r="A260" s="5" t="s">
         <v>1244</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" s="5" t="s">
         <v>985</v>
       </c>
       <c r="C260" s="0" t="n">
@@ -20513,10 +20887,10 @@
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="3" t="s">
+      <c r="A261" s="5" t="s">
         <v>1245</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B261" s="5" t="s">
         <v>985</v>
       </c>
       <c r="C261" s="0" t="n">
@@ -20524,10 +20898,10 @@
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="3" t="s">
+      <c r="A262" s="5" t="s">
         <v>1246</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B262" s="5" t="s">
         <v>985</v>
       </c>
       <c r="C262" s="0" t="n">
@@ -20535,10 +20909,10 @@
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="3" t="s">
+      <c r="A263" s="5" t="s">
         <v>1247</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B263" s="5" t="s">
         <v>985</v>
       </c>
       <c r="C263" s="0" t="n">
@@ -20546,10 +20920,10 @@
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="3" t="s">
+      <c r="A264" s="5" t="s">
         <v>1248</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B264" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C264" s="0" t="n">
@@ -20557,10 +20931,10 @@
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="5" t="s">
         <v>1249</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B265" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C265" s="0" t="n">
@@ -20568,10 +20942,10 @@
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="3" t="s">
+      <c r="A266" s="5" t="s">
         <v>1250</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C266" s="0" t="n">
@@ -20579,10 +20953,10 @@
       </c>
     </row>
     <row r="267" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="3" t="s">
+      <c r="A267" s="5" t="s">
         <v>1251</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C267" s="0" t="n">
@@ -20590,10 +20964,10 @@
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="3" t="s">
+      <c r="A268" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B268" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C268" s="0" t="n">
@@ -20601,10 +20975,10 @@
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="3" t="s">
+      <c r="A269" s="5" t="s">
         <v>1253</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C269" s="0" t="n">
@@ -20612,10 +20986,10 @@
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="3" t="s">
+      <c r="A270" s="5" t="s">
         <v>1254</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B270" s="5" t="s">
         <v>997</v>
       </c>
       <c r="C270" s="0" t="n">
@@ -20623,10 +20997,10 @@
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="3" t="s">
+      <c r="A271" s="5" t="s">
         <v>1255</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B271" s="5" t="s">
         <v>1053</v>
       </c>
       <c r="C271" s="0" t="n">
@@ -20634,10 +21008,10 @@
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="3" t="s">
+      <c r="A272" s="5" t="s">
         <v>1256</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B272" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C272" s="0" t="n">
@@ -20645,10 +21019,10 @@
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="3" t="s">
+      <c r="A273" s="5" t="s">
         <v>1257</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B273" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C273" s="0" t="n">
@@ -20656,10 +21030,10 @@
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="3" t="s">
+      <c r="A274" s="5" t="s">
         <v>1258</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B274" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C274" s="0" t="n">
@@ -20667,10 +21041,10 @@
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="3" t="s">
+      <c r="A275" s="5" t="s">
         <v>1259</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B275" s="5" t="s">
         <v>1053</v>
       </c>
       <c r="C275" s="0" t="n">
@@ -20678,10 +21052,10 @@
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="3" t="s">
+      <c r="A276" s="5" t="s">
         <v>1260</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C276" s="0" t="n">
@@ -20689,10 +21063,10 @@
       </c>
     </row>
     <row r="277" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="3" t="s">
+      <c r="A277" s="5" t="s">
         <v>1261</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B277" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C277" s="0" t="n">
@@ -20700,10 +21074,10 @@
       </c>
     </row>
     <row r="278" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="3" t="s">
+      <c r="A278" s="5" t="s">
         <v>1262</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B278" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C278" s="0" t="n">
@@ -20711,10 +21085,10 @@
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="3" t="s">
+      <c r="A279" s="5" t="s">
         <v>1263</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B279" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C279" s="0" t="n">
@@ -20722,10 +21096,10 @@
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="3" t="s">
+      <c r="A280" s="5" t="s">
         <v>1264</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C280" s="0" t="n">
@@ -20733,10 +21107,10 @@
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="3" t="s">
+      <c r="A281" s="5" t="s">
         <v>1265</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B281" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C281" s="0" t="n">
@@ -20744,10 +21118,10 @@
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="3" t="s">
+      <c r="A282" s="5" t="s">
         <v>1266</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B282" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C282" s="0" t="n">
@@ -20755,10 +21129,10 @@
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="3" t="s">
+      <c r="A283" s="5" t="s">
         <v>1267</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B283" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C283" s="0" t="n">
@@ -20766,10 +21140,10 @@
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="3" t="s">
+      <c r="A284" s="5" t="s">
         <v>1268</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="B284" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C284" s="0" t="n">
@@ -20777,10 +21151,10 @@
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="3" t="s">
+      <c r="A285" s="5" t="s">
         <v>1269</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B285" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C285" s="0" t="n">
@@ -20788,10 +21162,10 @@
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="3" t="s">
+      <c r="A286" s="5" t="s">
         <v>1270</v>
       </c>
-      <c r="B286" s="3" t="s">
+      <c r="B286" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C286" s="0" t="n">
@@ -20799,10 +21173,10 @@
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="3" t="s">
+      <c r="A287" s="5" t="s">
         <v>1271</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B287" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C287" s="0" t="n">
@@ -20810,10 +21184,10 @@
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="3" t="s">
+      <c r="A288" s="5" t="s">
         <v>1272</v>
       </c>
-      <c r="B288" s="3" t="s">
+      <c r="B288" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C288" s="0" t="n">
@@ -20821,10 +21195,10 @@
       </c>
     </row>
     <row r="289" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="3" t="s">
+      <c r="A289" s="5" t="s">
         <v>1273</v>
       </c>
-      <c r="B289" s="3" t="s">
+      <c r="B289" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C289" s="0" t="n">
@@ -20832,10 +21206,10 @@
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="3" t="s">
+      <c r="A290" s="5" t="s">
         <v>1274</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="B290" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C290" s="0" t="n">
@@ -20843,10 +21217,10 @@
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="3" t="s">
+      <c r="A291" s="5" t="s">
         <v>1275</v>
       </c>
-      <c r="B291" s="3" t="s">
+      <c r="B291" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C291" s="0" t="n">
@@ -20854,10 +21228,10 @@
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="3" t="s">
+      <c r="A292" s="5" t="s">
         <v>1276</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B292" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C292" s="0" t="n">
@@ -20865,10 +21239,10 @@
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="3" t="s">
+      <c r="A293" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B293" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C293" s="0" t="n">
@@ -20876,10 +21250,10 @@
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="3" t="s">
+      <c r="A294" s="5" t="s">
         <v>1278</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B294" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C294" s="0" t="n">
@@ -20887,10 +21261,10 @@
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="3" t="s">
+      <c r="A295" s="5" t="s">
         <v>1279</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B295" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C295" s="0" t="n">
@@ -20898,10 +21272,10 @@
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="3" t="s">
+      <c r="A296" s="5" t="s">
         <v>1280</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B296" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C296" s="0" t="n">
@@ -20909,10 +21283,10 @@
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="3" t="s">
+      <c r="A297" s="5" t="s">
         <v>1281</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B297" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C297" s="0" t="n">
@@ -20920,10 +21294,10 @@
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="3" t="s">
+      <c r="A298" s="5" t="s">
         <v>1282</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B298" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C298" s="0" t="n">
@@ -20931,10 +21305,10 @@
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="3" t="s">
+      <c r="A299" s="5" t="s">
         <v>1283</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B299" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C299" s="0" t="n">
@@ -20942,10 +21316,10 @@
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="3" t="s">
+      <c r="A300" s="5" t="s">
         <v>1284</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B300" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C300" s="0" t="n">
@@ -20953,10 +21327,10 @@
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="3" t="s">
+      <c r="A301" s="5" t="s">
         <v>1285</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B301" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C301" s="0" t="n">
@@ -20964,10 +21338,10 @@
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="3" t="s">
+      <c r="A302" s="5" t="s">
         <v>1286</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B302" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C302" s="0" t="n">
@@ -20975,10 +21349,10 @@
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="3" t="s">
+      <c r="A303" s="5" t="s">
         <v>1287</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B303" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C303" s="0" t="n">
@@ -20986,10 +21360,10 @@
       </c>
     </row>
     <row r="304" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="3" t="s">
+      <c r="A304" s="5" t="s">
         <v>1288</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B304" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C304" s="0" t="n">
@@ -20997,10 +21371,10 @@
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="3" t="s">
+      <c r="A305" s="5" t="s">
         <v>1289</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="B305" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C305" s="0" t="n">
@@ -21008,10 +21382,10 @@
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="3" t="s">
+      <c r="A306" s="5" t="s">
         <v>1290</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B306" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C306" s="0" t="n">
@@ -21019,10 +21393,10 @@
       </c>
     </row>
     <row r="307" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="3" t="s">
+      <c r="A307" s="5" t="s">
         <v>1291</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B307" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C307" s="0" t="n">
@@ -21030,10 +21404,10 @@
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="3" t="s">
+      <c r="A308" s="5" t="s">
         <v>1292</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B308" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C308" s="0" t="n">
@@ -21041,10 +21415,10 @@
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="3" t="s">
+      <c r="A309" s="5" t="s">
         <v>1293</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B309" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C309" s="0" t="n">
@@ -21052,10 +21426,10 @@
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="3" t="s">
+      <c r="A310" s="5" t="s">
         <v>1294</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B310" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C310" s="0" t="n">
@@ -21063,10 +21437,10 @@
       </c>
     </row>
     <row r="311" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="3" t="s">
+      <c r="A311" s="5" t="s">
         <v>1295</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B311" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C311" s="0" t="n">
@@ -21074,10 +21448,10 @@
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="3" t="s">
+      <c r="A312" s="5" t="s">
         <v>1296</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B312" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C312" s="0" t="n">
@@ -21085,10 +21459,10 @@
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="3" t="s">
+      <c r="A313" s="5" t="s">
         <v>1297</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="B313" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C313" s="0" t="n">
@@ -21096,10 +21470,10 @@
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="3" t="s">
+      <c r="A314" s="5" t="s">
         <v>1298</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B314" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C314" s="0" t="n">
@@ -21107,10 +21481,10 @@
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="3" t="s">
+      <c r="A315" s="5" t="s">
         <v>1299</v>
       </c>
-      <c r="B315" s="3" t="s">
+      <c r="B315" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C315" s="0" t="n">
@@ -21118,10 +21492,10 @@
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="3" t="s">
+      <c r="A316" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B316" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C316" s="0" t="n">
@@ -21129,10 +21503,10 @@
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="3" t="s">
+      <c r="A317" s="5" t="s">
         <v>1301</v>
       </c>
-      <c r="B317" s="3" t="s">
+      <c r="B317" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C317" s="0" t="n">
@@ -21140,10 +21514,10 @@
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="3" t="s">
+      <c r="A318" s="5" t="s">
         <v>1302</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="B318" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C318" s="0" t="n">
@@ -21151,10 +21525,10 @@
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="3" t="s">
+      <c r="A319" s="5" t="s">
         <v>1303</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B319" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C319" s="0" t="n">
@@ -21162,10 +21536,10 @@
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="3" t="s">
+      <c r="A320" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B320" s="5" t="s">
         <v>997</v>
       </c>
       <c r="C320" s="0" t="n">
@@ -21173,10 +21547,10 @@
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="3" t="s">
+      <c r="A321" s="5" t="s">
         <v>1305</v>
       </c>
-      <c r="B321" s="3" t="s">
+      <c r="B321" s="5" t="s">
         <v>997</v>
       </c>
       <c r="C321" s="0" t="n">
@@ -21184,10 +21558,10 @@
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="3" t="s">
+      <c r="A322" s="5" t="s">
         <v>1306</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B322" s="5" t="s">
         <v>997</v>
       </c>
       <c r="C322" s="0" t="n">
@@ -21195,10 +21569,10 @@
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="3" t="s">
+      <c r="A323" s="5" t="s">
         <v>1307</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B323" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C323" s="0" t="n">
@@ -21206,10 +21580,10 @@
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="3" t="s">
+      <c r="A324" s="5" t="s">
         <v>1308</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B324" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C324" s="0" t="n">
@@ -21217,10 +21591,10 @@
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="3" t="s">
+      <c r="A325" s="5" t="s">
         <v>1309</v>
       </c>
-      <c r="B325" s="3" t="s">
+      <c r="B325" s="5" t="s">
         <v>990</v>
       </c>
       <c r="C325" s="0" t="n">
@@ -21228,10 +21602,10 @@
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="3" t="s">
+      <c r="A326" s="5" t="s">
         <v>1310</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B326" s="5" t="s">
         <v>990</v>
       </c>
       <c r="C326" s="0" t="n">
@@ -21239,10 +21613,10 @@
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="3" t="s">
+      <c r="A327" s="5" t="s">
         <v>1311</v>
       </c>
-      <c r="B327" s="3" t="s">
+      <c r="B327" s="5" t="s">
         <v>990</v>
       </c>
       <c r="C327" s="0" t="n">
@@ -21250,10 +21624,10 @@
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="3" t="s">
+      <c r="A328" s="5" t="s">
         <v>1312</v>
       </c>
-      <c r="B328" s="3" t="s">
+      <c r="B328" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C328" s="0" t="n">
@@ -21261,10 +21635,10 @@
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="3" t="s">
+      <c r="A329" s="5" t="s">
         <v>1313</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B329" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="C329" s="0" t="n">
@@ -21272,10 +21646,10 @@
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="3" t="s">
+      <c r="A330" s="5" t="s">
         <v>1314</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B330" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="C330" s="0" t="n">
@@ -21283,10 +21657,10 @@
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="3" t="s">
+      <c r="A331" s="5" t="s">
         <v>1315</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B331" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="C331" s="0" t="n">
@@ -21294,10 +21668,10 @@
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="3" t="s">
+      <c r="A332" s="5" t="s">
         <v>1316</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B332" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="C332" s="0" t="n">
@@ -21305,10 +21679,10 @@
       </c>
     </row>
     <row r="333" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="3" t="s">
+      <c r="A333" s="5" t="s">
         <v>1317</v>
       </c>
-      <c r="B333" s="3" t="s">
+      <c r="B333" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="C333" s="0" t="n">
@@ -21316,10 +21690,10 @@
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="3" t="s">
+      <c r="A334" s="5" t="s">
         <v>1318</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B334" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C334" s="0" t="n">
@@ -21327,10 +21701,10 @@
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="3" t="s">
+      <c r="A335" s="5" t="s">
         <v>1319</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="B335" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C335" s="0" t="n">
@@ -21338,10 +21712,10 @@
       </c>
     </row>
     <row r="336" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="3" t="s">
+      <c r="A336" s="5" t="s">
         <v>1320</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="B336" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C336" s="0" t="n">
@@ -21349,10 +21723,10 @@
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="3" t="s">
+      <c r="A337" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="B337" s="3" t="s">
+      <c r="B337" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C337" s="0" t="n">
@@ -21360,10 +21734,10 @@
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="3" t="s">
+      <c r="A338" s="5" t="s">
         <v>1322</v>
       </c>
-      <c r="B338" s="3" t="s">
+      <c r="B338" s="5" t="s">
         <v>985</v>
       </c>
       <c r="C338" s="0" t="n">
@@ -21371,10 +21745,10 @@
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="3" t="s">
+      <c r="A339" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="B339" s="3" t="s">
+      <c r="B339" s="5" t="s">
         <v>985</v>
       </c>
       <c r="C339" s="0" t="n">
@@ -21382,10 +21756,10 @@
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="3" t="s">
+      <c r="A340" s="5" t="s">
         <v>1324</v>
       </c>
-      <c r="B340" s="3" t="s">
+      <c r="B340" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C340" s="0" t="n">
